--- a/plotpackage/data/HER.xlsx
+++ b/plotpackage/data/HER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="doping-near-mag" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="overlayer" sheetId="2" r:id="rId3"/>
     <sheet name="island" sheetId="4" r:id="rId4"/>
     <sheet name="paral" sheetId="5" r:id="rId5"/>
+    <sheet name="top-new" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>Pure</t>
   </si>
@@ -75,6 +76,36 @@
       </rPr>
       <t>+</t>
     </r>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Ag</t>
   </si>
 </sst>
 </file>
@@ -118,8 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,4 +1411,272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.55585154999999808</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.4216858300000563</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.85138811000001446</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.46979256000002856</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>8.0178999999985123E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3.5218530000006965E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.29592760999997658</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.78252992000005683</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1.5126675700000174</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1.2383154500000142</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1.3809447200000573</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.85922983000005893</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.46858960000002803</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.14532434000005701</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-7.2604909999997247E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.36257299000004473</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1.7800655700000316</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>